--- a/cmo_account_report/xlsx_template/xlsx_report_output_tax.xlsx
+++ b/cmo_account_report/xlsx_template/xlsx_report_output_tax.xlsx
@@ -251,7 +251,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -370,8 +370,8 @@
   </sheetPr>
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -454,16 +454,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="true" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="3" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
         <v>8</v>
@@ -545,12 +545,13 @@
       <c r="N9" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="B6:G6"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:D9"/>

--- a/cmo_account_report/xlsx_template/xlsx_report_output_tax.xlsx
+++ b/cmo_account_report/xlsx_template/xlsx_report_output_tax.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t xml:space="preserve">รายงาน</t>
   </si>
@@ -43,15 +43,12 @@
     <t xml:space="preserve">สำนักงานใหญ่</t>
   </si>
   <si>
+    <t xml:space="preserve">สาขาที่</t>
+  </si>
+  <si>
     <t xml:space="preserve">ที่อยู่ :</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">สาขาย่อย</t>
-  </si>
-  <si>
     <t xml:space="preserve">ใบกำกับภาษี</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
   </si>
   <si>
     <t xml:space="preserve">ของลูกค้า/ผู้รับบริการ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">สาขาที่</t>
   </si>
 </sst>
 </file>
@@ -92,7 +86,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -117,6 +111,13 @@
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000080"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -132,20 +133,6 @@
       <sz val="10"/>
       <color rgb="FF000080"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000080"/>
-      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -198,7 +185,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -211,11 +198,15 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -223,67 +214,59 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -371,7 +354,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -389,48 +372,50 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0"/>
-      <c r="B2" s="5" t="s">
+    <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0"/>
-      <c r="B3" s="5" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" s="3" customFormat="true" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" s="4" customFormat="true" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="8"/>
-      <c r="D4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
       <c r="H4" s="9" t="s">
         <v>3</v>
       </c>
@@ -438,120 +423,121 @@
       <c r="J4" s="9"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" s="3" customFormat="true" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+    <row r="5" s="4" customFormat="true" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="8"/>
-      <c r="D5" s="7"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="H5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="I5" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" s="3" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+      <c r="J5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4" t="s">
+    </row>
+    <row r="6" s="4" customFormat="true" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="3" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-    </row>
-    <row r="8" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14" t="s">
+      <c r="E8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="F8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="G8" s="15"/>
+      <c r="H8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16" t="s">
+      <c r="I8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="J8" s="16"/>
+      <c r="K8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="17"/>
-      <c r="K8" s="14" t="s">
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+    </row>
+    <row r="9" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-    </row>
-    <row r="9" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="D9" s="13"/>
+      <c r="E9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="20"/>
+      <c r="G9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
+  <mergeCells count="15">
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:I6"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:D9"/>

--- a/cmo_account_report/xlsx_template/xlsx_report_output_tax.xlsx
+++ b/cmo_account_report/xlsx_template/xlsx_report_output_tax.xlsx
@@ -185,7 +185,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -248,10 +248,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -351,10 +347,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:AMJ9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -367,15 +363,16 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="11.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="11.64"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="6.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.89"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.89"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="11" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
@@ -390,7 +387,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
+      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
@@ -405,9 +402,9 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" s="4" customFormat="true" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ3" s="0"/>
+    </row>
+    <row r="4" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -420,8 +417,8 @@
         <v>3</v>
       </c>
       <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="AMJ4" s="0"/>
     </row>
     <row r="5" s="4" customFormat="true" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
@@ -432,20 +429,21 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="H5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" s="4" customFormat="true" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ5" s="0"/>
+    </row>
+    <row r="6" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -457,7 +455,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="5"/>
+      <c r="AMJ6" s="0"/>
     </row>
     <row r="7" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
@@ -470,9 +468,9 @@
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-    </row>
-    <row r="8" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AMJ7" s="0"/>
+    </row>
+    <row r="8" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="12"/>
       <c r="B8" s="13" t="s">
         <v>9</v>
@@ -494,15 +492,15 @@
       <c r="I8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="13" t="s">
+      <c r="J8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-    </row>
-    <row r="9" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="AMJ8" s="0"/>
+    </row>
+    <row r="9" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="12"/>
       <c r="B9" s="13" t="s">
         <v>16</v>
@@ -522,19 +520,19 @@
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="18"/>
       <c r="L9" s="19"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="19"/>
+      <c r="M9" s="18"/>
+      <c r="AMJ9" s="0"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:F4"/>
-    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="B6:I6"/>
@@ -544,7 +542,7 @@
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="I8:I9"/>
-    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="J8:J9"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/cmo_account_report/xlsx_template/xlsx_report_output_tax.xlsx
+++ b/cmo_account_report/xlsx_template/xlsx_report_output_tax.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Output Tax Report" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sell Tax Report" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -350,7 +350,7 @@
   <dimension ref="A1:AMJ9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
